--- a/StructureDefinition-onconova-cancer-patient.xlsx
+++ b/StructureDefinition-onconova-cancer-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:38:38+00:00</t>
+    <t>2025-10-15T14:58:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-patient.xlsx
+++ b/StructureDefinition-onconova-cancer-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:58:32+00:00</t>
+    <t>2025-10-15T15:04:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-patient.xlsx
+++ b/StructureDefinition-onconova-cancer-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T13:44:17+00:00</t>
+    <t>2025-11-07T05:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-patient.xlsx
+++ b/StructureDefinition-onconova-cancer-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T05:59:36+00:00</t>
+    <t>2025-11-11T12:30:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -277,7 +277,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}o-pat-req-1:The identifier element must contain the identifier for the Onconova logical pseudoidentifier slice. {identifier.where(type.coding.code = 'ACSN' and system = 'Onconova').exists()}o-pat-req-2:The identifier element must contain the identifier for the clinical center's patient identifier slice. {identifier.where(type.coding.code = 'MR').exists(system.exists() and value.exists())}o-pat-req-3:The gender element is required and must be provided {gender.exists() and gender.coding.exists()}o-pat-req-4:The birthDate element is required and must be provided {birthDate.exists() and birthDate.hasValue()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}o-pat-req-1:The identifier element must contain the identifier for the Onconova logical pseudoidentifier slice. {identifier.where(type.coding.code = 'ACSN' and system = 'Onconova').exists()}o-pat-req-2:The identifier element must contain the identifier for the clinical center's patient identifier slice. {identifier.where(type.coding.code = 'MR').exists(system.exists() and value.exists())}o-pat-req-3:The gender element is required and must be provided {gender.exists()}o-pat-req-4:The birthDate element is required and must be provided {birthDate.exists() and birthDate.hasValue()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>

--- a/StructureDefinition-onconova-cancer-patient.xlsx
+++ b/StructureDefinition-onconova-cancer-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:30:26+00:00</t>
+    <t>2025-11-11T12:47:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-patient.xlsx
+++ b/StructureDefinition-onconova-cancer-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$120</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4269" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4487" uniqueCount="715">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:47:38+00:00</t>
+    <t>2025-11-18T09:06:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -563,6 +563,38 @@
   </si>
   <si>
     <t>This represents an individual's identity, ascertained by asking them what that identity is.</t>
+  </si>
+  <si>
+    <t>Patient.extension:vitalStatus</t>
+  </si>
+  <si>
+    <t>vitalStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-vital-status|0.2.0}
+</t>
+  </si>
+  <si>
+    <t>Vital status</t>
+  </si>
+  <si>
+    <t>The status of whether the patient is alive or deceased or unknown.</t>
+  </si>
+  <si>
+    <t>Patient.extension:consentStatus</t>
+  </si>
+  <si>
+    <t>consentStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-consent-status|0.2.0}
+</t>
+  </si>
+  <si>
+    <t>Consent status</t>
+  </si>
+  <si>
+    <t>The status of whether the patient has given or revoked consent for reasearch use.</t>
   </si>
   <si>
     <t>Patient.extension:overallSurvival</t>
@@ -1056,10 +1088,7 @@
 </t>
   </si>
   <si>
-    <t>(USCDI) A name associated with the patient</t>
-  </si>
-  <si>
-    <t>A name associated with the individual.</t>
+    <t>Not used in this profile</t>
   </si>
   <si>
     <t>A patient may have multiple names with different uses or applicable periods. For animals, the name is a "HumanName" in the sense that is assigned and used by humans and has the same patterns.</t>
@@ -1093,14 +1122,75 @@
     <t>anonymizedEntry</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-anonymized-entry|0.2.0}
+    <t xml:space="preserve">Extension {data-absent-reason|5.2.0}
 </t>
   </si>
   <si>
-    <t>Anonymized Entry</t>
-  </si>
-  <si>
-    <t>Value not provided to maintain the anonymization of the patient's data and conform to data protection regulations for research data.</t>
+    <t>unknown | asked | temp | notasked | masked | unsupported | astext | error</t>
+  </si>
+  <si>
+    <t>Provides a reason why the expected value or elements in the element that is extended are missing.</t>
+  </si>
+  <si>
+    <t>ANY.nullFlavor</t>
+  </si>
+  <si>
+    <t>Patient.name.extension:anonymizedEntry.id</t>
+  </si>
+  <si>
+    <t>Patient.name.extension.id</t>
+  </si>
+  <si>
+    <t>Patient.name.extension:anonymizedEntry.extension</t>
+  </si>
+  <si>
+    <t>Patient.name.extension.extension</t>
+  </si>
+  <si>
+    <t>Patient.name.extension:anonymizedEntry.url</t>
+  </si>
+  <si>
+    <t>Patient.name.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/data-absent-reason</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Patient.name.extension:anonymizedEntry.value[x]</t>
+  </si>
+  <si>
+    <t>Patient.name.extension.value[x]</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>masked</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ext-1
+</t>
   </si>
   <si>
     <t>Patient.name.use</t>
@@ -1273,9 +1363,6 @@
   <si>
     <t xml:space="preserve">ContactPoint
 </t>
-  </si>
-  <si>
-    <t>Not used in this profile</t>
   </si>
   <si>
     <t>A Patient may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently and also to help with identification. The address might not go directly to the individual, but may reach another party that is able to proxy for the patient (i.e. home phone, or pet owner's phone).</t>
@@ -2491,7 +2578,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO114"/>
+  <dimension ref="A1:AO120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2500,7 +2587,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.08984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.83984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="17.078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
@@ -4789,7 +4876,7 @@
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>20</v>
@@ -5023,7 +5110,7 @@
         <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>20</v>
@@ -5127,43 +5214,41 @@
         <v>208</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="D23" t="s" s="2">
-        <v>209</v>
+        <v>20</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N23" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="O23" t="s" s="2">
-        <v>213</v>
-      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>20</v>
       </c>
@@ -5211,7 +5296,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -5226,7 +5311,7 @@
         <v>139</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>20</v>
@@ -5243,44 +5328,44 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="D24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L24" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>219</v>
-      </c>
       <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>220</v>
-      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>20</v>
       </c>
@@ -5316,17 +5401,19 @@
         <v>20</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AC24" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="AD24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>215</v>
+        <v>138</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -5338,19 +5425,19 @@
         <v>20</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>224</v>
+        <v>20</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>225</v>
+        <v>20</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>20</v>
@@ -5358,42 +5445,46 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>227</v>
+        <v>133</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
       </c>
@@ -5441,22 +5532,22 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>231</v>
+        <v>131</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>20</v>
@@ -5473,44 +5564,44 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>209</v>
+        <v>20</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>226</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>133</v>
+        <v>227</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>20</v>
       </c>
@@ -5546,11 +5637,9 @@
         <v>20</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="AC26" s="2"/>
       <c r="AD26" t="s" s="2">
         <v>20</v>
       </c>
@@ -5558,7 +5647,7 @@
         <v>137</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -5570,19 +5659,19 @@
         <v>20</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>20</v>
+        <v>234</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>20</v>
+        <v>235</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>20</v>
@@ -5590,10 +5679,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5610,13 +5699,13 @@
         <v>20</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>108</v>
+        <v>237</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>238</v>
@@ -5624,12 +5713,8 @@
       <c r="M27" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="N27" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>241</v>
-      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>20</v>
       </c>
@@ -5653,13 +5738,13 @@
         <v>20</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>242</v>
+        <v>20</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>243</v>
+        <v>20</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>244</v>
+        <v>20</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>20</v>
@@ -5677,7 +5762,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5689,10 +5774,10 @@
         <v>20</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>20</v>
@@ -5701,7 +5786,7 @@
         <v>20</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>20</v>
@@ -5709,21 +5794,21 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>20</v>
@@ -5732,23 +5817,21 @@
         <v>20</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>248</v>
+        <v>133</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>20</v>
       </c>
@@ -5772,46 +5855,46 @@
         <v>20</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>253</v>
+        <v>20</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>254</v>
+        <v>20</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>20</v>
+        <v>245</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>20</v>
@@ -5820,18 +5903,18 @@
         <v>20</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>257</v>
+        <v>20</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5839,34 +5922,34 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>20</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -5879,7 +5962,7 @@
         <v>20</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>263</v>
+        <v>20</v>
       </c>
       <c r="U29" t="s" s="2">
         <v>20</v>
@@ -5891,13 +5974,13 @@
         <v>20</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>20</v>
+        <v>252</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>20</v>
+        <v>253</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>20</v>
+        <v>254</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>20</v>
@@ -5915,7 +5998,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5930,7 +6013,7 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>20</v>
@@ -5939,18 +6022,18 @@
         <v>20</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>266</v>
+        <v>131</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5958,13 +6041,13 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>20</v>
@@ -5973,18 +6056,20 @@
         <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
       </c>
@@ -5996,7 +6081,7 @@
         <v>20</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>271</v>
+        <v>20</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>20</v>
@@ -6008,13 +6093,13 @@
         <v>20</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>20</v>
+        <v>263</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>20</v>
+        <v>264</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>20</v>
+        <v>265</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>20</v>
@@ -6032,7 +6117,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -6047,7 +6132,7 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>20</v>
@@ -6056,18 +6141,18 @@
         <v>20</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6075,13 +6160,13 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>20</v>
@@ -6090,16 +6175,20 @@
         <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>276</v>
+        <v>102</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
       </c>
@@ -6111,7 +6200,7 @@
         <v>20</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>20</v>
+        <v>273</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>20</v>
@@ -6147,7 +6236,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -6162,7 +6251,7 @@
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>20</v>
@@ -6171,18 +6260,18 @@
         <v>20</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6190,13 +6279,13 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>20</v>
@@ -6205,16 +6294,16 @@
         <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>283</v>
+        <v>237</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6228,7 +6317,7 @@
         <v>20</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>20</v>
+        <v>281</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>20</v>
@@ -6264,7 +6353,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -6279,7 +6368,7 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>20</v>
@@ -6288,34 +6377,32 @@
         <v>20</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>20</v>
@@ -6324,18 +6411,16 @@
         <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>217</v>
+        <v>286</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>219</v>
+        <v>288</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>220</v>
-      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>20</v>
       </c>
@@ -6383,13 +6468,13 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>215</v>
+        <v>289</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>20</v>
@@ -6398,16 +6483,16 @@
         <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>222</v>
+        <v>290</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>224</v>
+        <v>20</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>225</v>
+        <v>291</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>20</v>
@@ -6415,10 +6500,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>226</v>
+        <v>292</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6438,18 +6523,20 @@
         <v>20</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>227</v>
+        <v>293</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>228</v>
+        <v>294</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>20</v>
@@ -6498,7 +6585,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>230</v>
+        <v>297</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -6510,10 +6597,10 @@
         <v>20</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>231</v>
+        <v>298</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>20</v>
@@ -6522,52 +6609,54 @@
         <v>20</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>20</v>
+        <v>299</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="D35" t="s" s="2">
-        <v>209</v>
+        <v>20</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>133</v>
+        <v>227</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>233</v>
+        <v>302</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>20</v>
       </c>
@@ -6603,19 +6692,19 @@
         <v>20</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6627,19 +6716,19 @@
         <v>20</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>20</v>
+        <v>234</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>20</v>
+        <v>235</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>20</v>
@@ -6647,10 +6736,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6667,13 +6756,13 @@
         <v>20</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>108</v>
+        <v>237</v>
       </c>
       <c r="L36" t="s" s="2">
         <v>238</v>
@@ -6681,12 +6770,8 @@
       <c r="M36" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="N36" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>241</v>
-      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>20</v>
       </c>
@@ -6710,13 +6795,13 @@
         <v>20</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>242</v>
+        <v>20</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>243</v>
+        <v>20</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>244</v>
+        <v>20</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>20</v>
@@ -6734,7 +6819,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6746,10 +6831,10 @@
         <v>20</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>20</v>
@@ -6758,7 +6843,7 @@
         <v>20</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>20</v>
@@ -6766,21 +6851,21 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>20</v>
@@ -6789,23 +6874,21 @@
         <v>20</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>248</v>
+        <v>133</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>20</v>
       </c>
@@ -6814,7 +6897,7 @@
         <v>20</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>297</v>
+        <v>20</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>20</v>
@@ -6829,46 +6912,46 @@
         <v>20</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>253</v>
+        <v>20</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>254</v>
+        <v>20</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>20</v>
+        <v>245</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>20</v>
@@ -6877,18 +6960,18 @@
         <v>20</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>257</v>
+        <v>20</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6896,34 +6979,34 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>20</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -6933,10 +7016,10 @@
         <v>20</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>263</v>
+        <v>20</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>20</v>
@@ -6948,13 +7031,13 @@
         <v>20</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>20</v>
+        <v>252</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>20</v>
+        <v>253</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>20</v>
+        <v>254</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>20</v>
@@ -6972,7 +7055,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6987,7 +7070,7 @@
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>20</v>
@@ -6996,18 +7079,18 @@
         <v>20</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>266</v>
+        <v>131</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7021,7 +7104,7 @@
         <v>89</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>20</v>
@@ -7030,18 +7113,20 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>20</v>
       </c>
@@ -7050,10 +7135,10 @@
         <v>20</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>20</v>
+        <v>307</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>271</v>
+        <v>20</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>20</v>
@@ -7065,13 +7150,13 @@
         <v>20</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>20</v>
+        <v>263</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>20</v>
+        <v>264</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>20</v>
+        <v>265</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>20</v>
@@ -7089,7 +7174,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -7104,7 +7189,7 @@
         <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>20</v>
@@ -7113,18 +7198,18 @@
         <v>20</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7132,13 +7217,13 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>20</v>
@@ -7147,16 +7232,20 @@
         <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>276</v>
+        <v>102</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>20</v>
       </c>
@@ -7165,10 +7254,10 @@
         <v>20</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>20</v>
+        <v>273</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>20</v>
@@ -7204,7 +7293,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -7219,7 +7308,7 @@
         <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>20</v>
@@ -7228,18 +7317,18 @@
         <v>20</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7247,13 +7336,13 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>20</v>
@@ -7262,16 +7351,16 @@
         <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>283</v>
+        <v>237</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7285,7 +7374,7 @@
         <v>20</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>20</v>
+        <v>281</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>20</v>
@@ -7321,7 +7410,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -7336,7 +7425,7 @@
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>20</v>
@@ -7345,34 +7434,32 @@
         <v>20</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>20</v>
@@ -7381,18 +7468,16 @@
         <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>217</v>
+        <v>286</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>219</v>
+        <v>288</v>
       </c>
       <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>220</v>
-      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>20</v>
       </c>
@@ -7440,13 +7525,13 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>215</v>
+        <v>289</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>20</v>
@@ -7455,16 +7540,16 @@
         <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>222</v>
+        <v>290</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>224</v>
+        <v>20</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>225</v>
+        <v>291</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>20</v>
@@ -7472,10 +7557,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>226</v>
+        <v>292</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7495,18 +7580,20 @@
         <v>20</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>227</v>
+        <v>293</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>228</v>
+        <v>294</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>20</v>
@@ -7555,7 +7642,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>230</v>
+        <v>297</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -7567,10 +7654,10 @@
         <v>20</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>231</v>
+        <v>298</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>20</v>
@@ -7579,52 +7666,54 @@
         <v>20</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>20</v>
+        <v>299</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="D44" t="s" s="2">
-        <v>209</v>
+        <v>20</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>133</v>
+        <v>227</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>20</v>
       </c>
@@ -7660,19 +7749,19 @@
         <v>20</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7684,19 +7773,19 @@
         <v>20</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>20</v>
+        <v>234</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>20</v>
+        <v>235</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>20</v>
@@ -7704,10 +7793,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7724,13 +7813,13 @@
         <v>20</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>108</v>
+        <v>237</v>
       </c>
       <c r="L45" t="s" s="2">
         <v>238</v>
@@ -7738,12 +7827,8 @@
       <c r="M45" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="N45" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>241</v>
-      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>20</v>
       </c>
@@ -7767,13 +7852,13 @@
         <v>20</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>242</v>
+        <v>20</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>243</v>
+        <v>20</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>244</v>
+        <v>20</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>20</v>
@@ -7791,7 +7876,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7803,10 +7888,10 @@
         <v>20</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>20</v>
@@ -7815,7 +7900,7 @@
         <v>20</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>20</v>
@@ -7823,21 +7908,21 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>20</v>
@@ -7846,23 +7931,21 @@
         <v>20</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>248</v>
+        <v>133</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>20</v>
       </c>
@@ -7871,7 +7954,7 @@
         <v>20</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>309</v>
+        <v>20</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>20</v>
@@ -7886,46 +7969,46 @@
         <v>20</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>253</v>
+        <v>20</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>254</v>
+        <v>20</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>20</v>
+        <v>245</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>20</v>
@@ -7934,18 +8017,18 @@
         <v>20</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>257</v>
+        <v>20</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7953,34 +8036,34 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>20</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>311</v>
+        <v>248</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>20</v>
@@ -7993,7 +8076,7 @@
         <v>20</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>263</v>
+        <v>20</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>20</v>
@@ -8005,13 +8088,13 @@
         <v>20</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>20</v>
+        <v>252</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>20</v>
+        <v>253</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>20</v>
+        <v>254</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>20</v>
@@ -8029,7 +8112,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -8044,7 +8127,7 @@
         <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>20</v>
@@ -8053,18 +8136,18 @@
         <v>20</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>266</v>
+        <v>131</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8078,7 +8161,7 @@
         <v>89</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>20</v>
@@ -8087,18 +8170,20 @@
         <v>81</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>20</v>
       </c>
@@ -8107,10 +8192,10 @@
         <v>20</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>20</v>
+        <v>319</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>271</v>
+        <v>20</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>20</v>
@@ -8122,13 +8207,13 @@
         <v>20</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>20</v>
+        <v>263</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>20</v>
+        <v>264</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>20</v>
+        <v>265</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>20</v>
@@ -8146,7 +8231,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -8161,7 +8246,7 @@
         <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>20</v>
@@ -8170,18 +8255,18 @@
         <v>20</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8189,13 +8274,13 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>20</v>
@@ -8204,16 +8289,20 @@
         <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>276</v>
+        <v>102</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>277</v>
+        <v>321</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>20</v>
       </c>
@@ -8225,7 +8314,7 @@
         <v>20</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>20</v>
+        <v>273</v>
       </c>
       <c r="U49" t="s" s="2">
         <v>20</v>
@@ -8261,7 +8350,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -8276,7 +8365,7 @@
         <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>20</v>
@@ -8285,18 +8374,18 @@
         <v>20</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8304,13 +8393,13 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>20</v>
@@ -8319,16 +8408,16 @@
         <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>283</v>
+        <v>237</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8342,7 +8431,7 @@
         <v>20</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>20</v>
+        <v>281</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>20</v>
@@ -8378,7 +8467,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -8393,7 +8482,7 @@
         <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>20</v>
@@ -8402,7 +8491,7 @@
         <v>20</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>20</v>
@@ -8410,10 +8499,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8430,32 +8519,26 @@
         <v>20</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="Q51" t="s" s="2">
-        <v>321</v>
-      </c>
+      <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
         <v>20</v>
       </c>
@@ -8499,7 +8582,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8514,27 +8597,27 @@
         <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>231</v>
+        <v>20</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>323</v>
+        <v>20</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>20</v>
+        <v>291</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
         <v>324</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8542,13 +8625,13 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>20</v>
@@ -8557,20 +8640,18 @@
         <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>20</v>
       </c>
@@ -8618,31 +8699,31 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>330</v>
+        <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>332</v>
+        <v>20</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>20</v>
@@ -8650,10 +8731,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8670,26 +8751,32 @@
         <v>20</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>227</v>
+        <v>326</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>228</v>
+        <v>327</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="Q53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="R53" t="s" s="2">
         <v>20</v>
       </c>
@@ -8733,7 +8820,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>230</v>
+        <v>325</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8745,16 +8832,16 @@
         <v>20</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>231</v>
+        <v>332</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>20</v>
+        <v>241</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>20</v>
+        <v>333</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>20</v>
@@ -8763,12 +8850,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8782,25 +8869,29 @@
         <v>80</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>133</v>
+        <v>335</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>134</v>
+        <v>336</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>20</v>
       </c>
@@ -8836,19 +8927,19 @@
         <v>20</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>236</v>
+        <v>334</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8860,19 +8951,19 @@
         <v>20</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>139</v>
+        <v>339</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>20</v>
+        <v>340</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>20</v>
+        <v>341</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>20</v>
+        <v>342</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>20</v>
@@ -8880,23 +8971,21 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>20</v>
@@ -8908,13 +8997,13 @@
         <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>338</v>
+        <v>237</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>339</v>
+        <v>238</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>340</v>
+        <v>239</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8965,22 +9054,22 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>20</v>
+        <v>241</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>20</v>
@@ -8997,10 +9086,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9008,35 +9097,31 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>342</v>
+        <v>134</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>20</v>
       </c>
@@ -9060,46 +9145,46 @@
         <v>20</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>242</v>
+        <v>20</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>346</v>
+        <v>20</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>347</v>
+        <v>20</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>20</v>
+        <v>245</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>348</v>
+        <v>246</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>349</v>
+        <v>20</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>20</v>
@@ -9108,7 +9193,7 @@
         <v>20</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>350</v>
+        <v>20</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>20</v>
@@ -9116,18 +9201,20 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="D57" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>89</v>
@@ -9139,23 +9226,19 @@
         <v>20</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>227</v>
+        <v>347</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>20</v>
       </c>
@@ -9203,22 +9286,22 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>356</v>
+        <v>246</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>20</v>
@@ -9227,22 +9310,22 @@
         <v>20</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>358</v>
+        <v>20</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>360</v>
+        <v>20</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -9252,26 +9335,24 @@
         <v>89</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>227</v>
+        <v>90</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>361</v>
+        <v>238</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>20</v>
@@ -9320,7 +9401,7 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>364</v>
+        <v>240</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -9329,13 +9410,13 @@
         <v>89</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>365</v>
+        <v>145</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>366</v>
+        <v>241</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>20</v>
@@ -9344,51 +9425,49 @@
         <v>20</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>367</v>
+        <v>20</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>369</v>
+        <v>20</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>227</v>
+        <v>133</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>370</v>
+        <v>134</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>20</v>
@@ -9425,19 +9504,19 @@
         <v>20</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>20</v>
+        <v>245</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>373</v>
+        <v>246</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9446,13 +9525,13 @@
         <v>80</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>365</v>
+        <v>20</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>374</v>
+        <v>20</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>20</v>
@@ -9461,7 +9540,7 @@
         <v>20</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>375</v>
+        <v>20</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>20</v>
@@ -9469,10 +9548,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9480,10 +9559,10 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>20</v>
@@ -9492,25 +9571,27 @@
         <v>20</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>227</v>
+        <v>102</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>20</v>
+        <v>360</v>
       </c>
       <c r="S60" t="s" s="2">
         <v>20</v>
@@ -9552,22 +9633,22 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>380</v>
+        <v>131</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>20</v>
@@ -9576,7 +9657,7 @@
         <v>20</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>381</v>
+        <v>20</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>20</v>
@@ -9584,10 +9665,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9595,10 +9676,10 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>20</v>
@@ -9607,16 +9688,16 @@
         <v>20</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>227</v>
+        <v>108</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9628,7 +9709,7 @@
         <v>20</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>20</v>
+        <v>366</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>20</v>
@@ -9643,13 +9724,11 @@
         <v>20</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>20</v>
+        <v>367</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>20</v>
@@ -9667,22 +9746,22 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>20</v>
+        <v>369</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>386</v>
+        <v>131</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>20</v>
@@ -9691,7 +9770,7 @@
         <v>20</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>387</v>
+        <v>20</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>20</v>
@@ -9699,10 +9778,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9719,23 +9798,25 @@
         <v>20</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>276</v>
+        <v>108</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="O62" t="s" s="2">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>20</v>
@@ -9760,13 +9841,13 @@
         <v>20</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>20</v>
+        <v>252</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>20</v>
+        <v>375</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>20</v>
+        <v>376</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>20</v>
@@ -9784,7 +9865,7 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9799,7 +9880,7 @@
         <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>20</v>
@@ -9808,7 +9889,7 @@
         <v>20</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>20</v>
@@ -9816,10 +9897,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9830,7 +9911,7 @@
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>20</v>
@@ -9842,19 +9923,19 @@
         <v>81</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>396</v>
+        <v>237</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>20</v>
@@ -9903,13 +9984,13 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>20</v>
@@ -9918,31 +9999,31 @@
         <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>401</v>
+        <v>20</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>20</v>
+        <v>389</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9952,24 +10033,26 @@
         <v>89</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>228</v>
+        <v>390</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>20</v>
@@ -10018,7 +10101,7 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>230</v>
+        <v>393</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -10027,13 +10110,13 @@
         <v>89</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>20</v>
+        <v>394</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>231</v>
+        <v>395</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>20</v>
@@ -10042,22 +10125,22 @@
         <v>20</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>20</v>
+        <v>396</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>209</v>
+        <v>398</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -10067,25 +10150,25 @@
         <v>80</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>133</v>
+        <v>237</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>233</v>
+        <v>399</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>234</v>
+        <v>400</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>212</v>
+        <v>401</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -10123,19 +10206,19 @@
         <v>20</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>236</v>
+        <v>402</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -10144,13 +10227,13 @@
         <v>80</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>20</v>
+        <v>394</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>231</v>
+        <v>403</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>20</v>
@@ -10159,13 +10242,13 @@
         <v>20</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>20</v>
+        <v>404</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
         <v>405</v>
       </c>
@@ -10178,13 +10261,13 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>20</v>
@@ -10193,7 +10276,7 @@
         <v>81</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>108</v>
+        <v>237</v>
       </c>
       <c r="L66" t="s" s="2">
         <v>406</v>
@@ -10226,46 +10309,46 @@
         <v>20</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>242</v>
+        <v>20</v>
       </c>
       <c r="Y66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF66" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="Z66" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>410</v>
-      </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>411</v>
+        <v>20</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>20</v>
@@ -10274,18 +10357,18 @@
         <v>20</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10293,13 +10376,13 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>20</v>
@@ -10308,20 +10391,16 @@
         <v>81</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>20</v>
       </c>
@@ -10369,13 +10448,13 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>20</v>
@@ -10384,7 +10463,7 @@
         <v>100</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>20</v>
@@ -10393,18 +10472,18 @@
         <v>20</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10418,28 +10497,26 @@
         <v>89</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>108</v>
+        <v>286</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>425</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>20</v>
@@ -10464,11 +10541,13 @@
         <v>20</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="Y68" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z68" t="s" s="2">
-        <v>427</v>
+        <v>20</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>20</v>
@@ -10486,7 +10565,7 @@
         <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -10501,7 +10580,7 @@
         <v>100</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>349</v>
+        <v>422</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>20</v>
@@ -10510,7 +10589,7 @@
         <v>20</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>20</v>
@@ -10518,10 +10597,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10532,7 +10611,7 @@
         <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>20</v>
@@ -10544,18 +10623,20 @@
         <v>81</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>432</v>
+        <v>336</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>433</v>
+        <v>336</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="O69" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>20</v>
       </c>
@@ -10603,13 +10684,13 @@
         <v>20</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>20</v>
@@ -10618,16 +10699,16 @@
         <v>100</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>231</v>
+        <v>428</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>20</v>
+        <v>429</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>231</v>
+        <v>430</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>20</v>
@@ -10635,10 +10716,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10658,16 +10739,16 @@
         <v>20</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>437</v>
+        <v>238</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>438</v>
+        <v>239</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10718,7 +10799,7 @@
         <v>20</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>439</v>
+        <v>240</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10730,10 +10811,10 @@
         <v>20</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>393</v>
+        <v>241</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>20</v>
@@ -10742,54 +10823,52 @@
         <v>20</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>441</v>
+        <v>243</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>442</v>
+        <v>244</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>444</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>20</v>
       </c>
@@ -10813,53 +10892,55 @@
         <v>20</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="Y71" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z71" t="s" s="2">
-        <v>445</v>
+        <v>20</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>20</v>
+        <v>245</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>440</v>
+        <v>246</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>161</v>
+        <v>241</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>446</v>
+        <v>20</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>447</v>
+        <v>20</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>20</v>
@@ -10867,10 +10948,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10893,20 +10974,16 @@
         <v>81</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>449</v>
+        <v>108</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>453</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>20</v>
       </c>
@@ -10930,13 +11007,13 @@
         <v>20</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>20</v>
+        <v>252</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>20</v>
+        <v>436</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>20</v>
+        <v>437</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>20</v>
@@ -10954,7 +11031,7 @@
         <v>20</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10963,33 +11040,33 @@
         <v>89</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>20</v>
+        <v>439</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>455</v>
+        <v>20</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>457</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10997,7 +11074,7 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>89</v>
@@ -11006,25 +11083,25 @@
         <v>81</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>459</v>
+        <v>237</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>20</v>
@@ -11073,7 +11150,7 @@
         <v>20</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -11088,16 +11165,16 @@
         <v>100</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>231</v>
+        <v>20</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>20</v>
@@ -11105,10 +11182,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11119,31 +11196,31 @@
         <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="J74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>467</v>
+        <v>108</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>397</v>
+        <v>451</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>397</v>
+        <v>452</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>20</v>
@@ -11168,13 +11245,11 @@
         <v>20</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="Y74" s="2"/>
       <c r="Z74" t="s" s="2">
-        <v>20</v>
+        <v>455</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>20</v>
@@ -11192,13 +11267,13 @@
         <v>20</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>20</v>
@@ -11207,16 +11282,16 @@
         <v>100</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>470</v>
+        <v>378</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>471</v>
+        <v>20</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>20</v>
@@ -11224,10 +11299,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11247,18 +11322,20 @@
         <v>20</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>227</v>
+        <v>459</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>228</v>
+        <v>460</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>462</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>20</v>
@@ -11307,7 +11384,7 @@
         <v>20</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>230</v>
+        <v>463</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -11319,10 +11396,10 @@
         <v>20</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>20</v>
@@ -11331,7 +11408,7 @@
         <v>20</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>20</v>
+        <v>241</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>20</v>
@@ -11339,21 +11416,21 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>209</v>
+        <v>20</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>20</v>
@@ -11362,20 +11439,18 @@
         <v>20</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>133</v>
+        <v>286</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>233</v>
+        <v>465</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>20</v>
@@ -11412,34 +11487,34 @@
         <v>20</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="AC76" t="s" s="2">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="AD76" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>236</v>
+        <v>467</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>231</v>
+        <v>422</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>20</v>
@@ -11448,18 +11523,18 @@
         <v>20</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11467,16 +11542,16 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J77" t="s" s="2">
         <v>81</v>
@@ -11485,16 +11560,16 @@
         <v>108</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>20</v>
@@ -11507,7 +11582,7 @@
         <v>20</v>
       </c>
       <c r="T77" t="s" s="2">
-        <v>480</v>
+        <v>20</v>
       </c>
       <c r="U77" t="s" s="2">
         <v>20</v>
@@ -11519,13 +11594,11 @@
         <v>20</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>481</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="Y77" s="2"/>
       <c r="Z77" t="s" s="2">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>20</v>
@@ -11543,7 +11616,7 @@
         <v>20</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -11558,27 +11631,27 @@
         <v>100</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>349</v>
+        <v>161</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>20</v>
+        <v>474</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11586,13 +11659,13 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>20</v>
@@ -11601,18 +11674,20 @@
         <v>81</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>108</v>
+        <v>477</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="O78" s="2"/>
+        <v>480</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>481</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>20</v>
       </c>
@@ -11624,7 +11699,7 @@
         <v>20</v>
       </c>
       <c r="T78" t="s" s="2">
-        <v>489</v>
+        <v>20</v>
       </c>
       <c r="U78" t="s" s="2">
         <v>20</v>
@@ -11636,13 +11711,13 @@
         <v>20</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>242</v>
+        <v>20</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>490</v>
+        <v>20</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>491</v>
+        <v>20</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>20</v>
@@ -11660,7 +11735,7 @@
         <v>20</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -11675,27 +11750,27 @@
         <v>100</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>349</v>
+        <v>482</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>20</v>
+        <v>483</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>20</v>
+        <v>485</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11709,28 +11784,28 @@
         <v>89</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="J79" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>227</v>
+        <v>487</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>355</v>
+        <v>491</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>20</v>
@@ -11743,7 +11818,7 @@
         <v>20</v>
       </c>
       <c r="T79" t="s" s="2">
-        <v>498</v>
+        <v>20</v>
       </c>
       <c r="U79" t="s" s="2">
         <v>20</v>
@@ -11779,7 +11854,7 @@
         <v>20</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -11794,16 +11869,16 @@
         <v>100</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>357</v>
+        <v>492</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>20</v>
+        <v>241</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>20</v>
@@ -11811,10 +11886,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11837,16 +11912,20 @@
         <v>81</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>227</v>
+        <v>495</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>502</v>
+        <v>336</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>497</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>20</v>
       </c>
@@ -11858,7 +11937,7 @@
         <v>20</v>
       </c>
       <c r="T80" t="s" s="2">
-        <v>504</v>
+        <v>20</v>
       </c>
       <c r="U80" t="s" s="2">
         <v>20</v>
@@ -11894,7 +11973,7 @@
         <v>20</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
@@ -11909,31 +11988,31 @@
         <v>100</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>20</v>
+        <v>499</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>509</v>
+        <v>20</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11943,22 +12022,22 @@
         <v>89</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>510</v>
+        <v>238</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>511</v>
+        <v>239</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11973,7 +12052,7 @@
         <v>20</v>
       </c>
       <c r="T81" t="s" s="2">
-        <v>512</v>
+        <v>20</v>
       </c>
       <c r="U81" t="s" s="2">
         <v>20</v>
@@ -12009,7 +12088,7 @@
         <v>20</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>513</v>
+        <v>240</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
@@ -12021,10 +12100,10 @@
         <v>20</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>514</v>
+        <v>241</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>20</v>
@@ -12033,7 +12112,7 @@
         <v>20</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>515</v>
+        <v>20</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>20</v>
@@ -12041,21 +12120,21 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>517</v>
+        <v>219</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>20</v>
@@ -12064,19 +12143,19 @@
         <v>20</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>227</v>
+        <v>133</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>518</v>
+        <v>243</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>519</v>
+        <v>244</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>520</v>
+        <v>222</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -12090,7 +12169,7 @@
         <v>20</v>
       </c>
       <c r="T82" t="s" s="2">
-        <v>521</v>
+        <v>20</v>
       </c>
       <c r="U82" t="s" s="2">
         <v>20</v>
@@ -12114,34 +12193,34 @@
         <v>20</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>20</v>
+        <v>245</v>
       </c>
       <c r="AD82" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>522</v>
+        <v>246</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>523</v>
+        <v>241</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>20</v>
@@ -12150,22 +12229,22 @@
         <v>20</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>524</v>
+        <v>20</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>526</v>
+        <v>20</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -12175,25 +12254,29 @@
         <v>89</v>
       </c>
       <c r="H83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I83" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>20</v>
       </c>
       <c r="J83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>227</v>
+        <v>108</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>527</v>
+        <v>504</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
+        <v>505</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>507</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>20</v>
       </c>
@@ -12205,7 +12288,7 @@
         <v>20</v>
       </c>
       <c r="T83" t="s" s="2">
-        <v>20</v>
+        <v>508</v>
       </c>
       <c r="U83" t="s" s="2">
         <v>20</v>
@@ -12217,13 +12300,13 @@
         <v>20</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>529</v>
+        <v>509</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>20</v>
@@ -12241,7 +12324,7 @@
         <v>20</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -12256,7 +12339,7 @@
         <v>100</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>532</v>
+        <v>378</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>20</v>
@@ -12265,22 +12348,22 @@
         <v>20</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>533</v>
+        <v>512</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>534</v>
+        <v>513</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>534</v>
+        <v>513</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>535</v>
+        <v>20</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12290,7 +12373,7 @@
         <v>89</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>20</v>
@@ -12299,15 +12382,17 @@
         <v>81</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>227</v>
+        <v>108</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>536</v>
+        <v>514</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>515</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>516</v>
+      </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>20</v>
@@ -12320,7 +12405,7 @@
         <v>20</v>
       </c>
       <c r="T84" t="s" s="2">
-        <v>538</v>
+        <v>517</v>
       </c>
       <c r="U84" t="s" s="2">
         <v>20</v>
@@ -12332,13 +12417,13 @@
         <v>20</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>20</v>
+        <v>252</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>20</v>
+        <v>518</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>20</v>
+        <v>519</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>20</v>
@@ -12356,7 +12441,7 @@
         <v>20</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>539</v>
+        <v>520</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
@@ -12371,7 +12456,7 @@
         <v>100</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>540</v>
+        <v>378</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>20</v>
@@ -12380,7 +12465,7 @@
         <v>20</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>20</v>
@@ -12388,10 +12473,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12414,18 +12499,20 @@
         <v>81</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="O85" s="2"/>
+        <v>525</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="P85" t="s" s="2">
         <v>20</v>
       </c>
@@ -12437,7 +12524,7 @@
         <v>20</v>
       </c>
       <c r="T85" t="s" s="2">
-        <v>20</v>
+        <v>526</v>
       </c>
       <c r="U85" t="s" s="2">
         <v>20</v>
@@ -12473,7 +12560,7 @@
         <v>20</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
@@ -12488,7 +12575,7 @@
         <v>100</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>547</v>
+        <v>386</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>20</v>
@@ -12497,18 +12584,18 @@
         <v>20</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>548</v>
+        <v>528</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
-        <v>549</v>
+        <v>529</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>549</v>
+        <v>529</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12519,10 +12606,10 @@
         <v>79</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>20</v>
@@ -12531,18 +12618,16 @@
         <v>81</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>551</v>
+        <v>531</v>
       </c>
       <c r="N86" s="2"/>
-      <c r="O86" t="s" s="2">
-        <v>552</v>
-      </c>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>20</v>
       </c>
@@ -12554,7 +12639,7 @@
         <v>20</v>
       </c>
       <c r="T86" t="s" s="2">
-        <v>553</v>
+        <v>532</v>
       </c>
       <c r="U86" t="s" s="2">
         <v>20</v>
@@ -12590,13 +12675,13 @@
         <v>20</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>20</v>
@@ -12605,7 +12690,7 @@
         <v>100</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>393</v>
+        <v>534</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>20</v>
@@ -12614,22 +12699,22 @@
         <v>20</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>555</v>
+        <v>535</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
-        <v>556</v>
+        <v>536</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>556</v>
+        <v>536</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>20</v>
+        <v>537</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12639,27 +12724,25 @@
         <v>89</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>397</v>
+        <v>538</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>397</v>
+        <v>539</v>
       </c>
       <c r="N87" s="2"/>
-      <c r="O87" t="s" s="2">
-        <v>557</v>
-      </c>
+      <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>20</v>
       </c>
@@ -12671,7 +12754,7 @@
         <v>20</v>
       </c>
       <c r="T87" t="s" s="2">
-        <v>20</v>
+        <v>540</v>
       </c>
       <c r="U87" t="s" s="2">
         <v>20</v>
@@ -12683,13 +12766,13 @@
         <v>20</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>253</v>
+        <v>20</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>558</v>
+        <v>20</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>559</v>
+        <v>20</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>20</v>
@@ -12707,7 +12790,7 @@
         <v>20</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
@@ -12722,16 +12805,16 @@
         <v>100</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>560</v>
+        <v>542</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>561</v>
+        <v>20</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>20</v>
@@ -12739,14 +12822,14 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>20</v>
+        <v>545</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12762,23 +12845,21 @@
         <v>20</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>564</v>
+        <v>237</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>568</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>20</v>
       </c>
@@ -12790,7 +12871,7 @@
         <v>20</v>
       </c>
       <c r="T88" t="s" s="2">
-        <v>20</v>
+        <v>549</v>
       </c>
       <c r="U88" t="s" s="2">
         <v>20</v>
@@ -12826,7 +12907,7 @@
         <v>20</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
@@ -12841,63 +12922,59 @@
         <v>100</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>569</v>
+        <v>551</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>231</v>
+        <v>20</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>570</v>
+        <v>552</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
-        <v>571</v>
+        <v>553</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>571</v>
+        <v>553</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>20</v>
+        <v>554</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>572</v>
+        <v>237</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>397</v>
+        <v>555</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>574</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>20</v>
       </c>
@@ -12921,13 +12998,13 @@
         <v>20</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>20</v>
+        <v>263</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>20</v>
+        <v>557</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>20</v>
+        <v>558</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>20</v>
@@ -12945,13 +13022,13 @@
         <v>20</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>20</v>
@@ -12960,63 +13037,59 @@
         <v>100</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>231</v>
+        <v>20</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="90" hidden="true">
+    <row r="90">
       <c r="A90" t="s" s="2">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>20</v>
+        <v>563</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>578</v>
+        <v>237</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>397</v>
+        <v>564</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>580</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>20</v>
       </c>
@@ -13028,7 +13101,7 @@
         <v>20</v>
       </c>
       <c r="T90" t="s" s="2">
-        <v>20</v>
+        <v>566</v>
       </c>
       <c r="U90" t="s" s="2">
         <v>20</v>
@@ -13064,31 +13137,31 @@
         <v>20</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>581</v>
+        <v>100</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>231</v>
+        <v>20</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>20</v>
+        <v>569</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>20</v>
@@ -13096,10 +13169,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13119,18 +13192,20 @@
         <v>20</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>228</v>
+        <v>571</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N91" s="2"/>
+        <v>572</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>573</v>
+      </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>20</v>
@@ -13179,7 +13254,7 @@
         <v>20</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>230</v>
+        <v>574</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
@@ -13191,10 +13266,10 @@
         <v>20</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>231</v>
+        <v>575</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>20</v>
@@ -13203,7 +13278,7 @@
         <v>20</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>20</v>
+        <v>576</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>20</v>
@@ -13211,21 +13286,21 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>209</v>
+        <v>20</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>20</v>
@@ -13234,21 +13309,21 @@
         <v>20</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>133</v>
+        <v>286</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>233</v>
+        <v>578</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="O92" s="2"/>
+        <v>579</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>580</v>
+      </c>
       <c r="P92" t="s" s="2">
         <v>20</v>
       </c>
@@ -13260,7 +13335,7 @@
         <v>20</v>
       </c>
       <c r="T92" t="s" s="2">
-        <v>20</v>
+        <v>581</v>
       </c>
       <c r="U92" t="s" s="2">
         <v>20</v>
@@ -13296,22 +13371,22 @@
         <v>20</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>236</v>
+        <v>582</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>231</v>
+        <v>422</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>20</v>
@@ -13320,7 +13395,7 @@
         <v>20</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>20</v>
+        <v>583</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>20</v>
@@ -13328,45 +13403,43 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>586</v>
+        <v>20</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>133</v>
+        <v>258</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>587</v>
+        <v>336</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>213</v>
+        <v>585</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>20</v>
@@ -13391,13 +13464,13 @@
         <v>20</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>20</v>
+        <v>263</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>20</v>
+        <v>586</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>20</v>
+        <v>587</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>20</v>
@@ -13415,31 +13488,31 @@
         <v>20</v>
       </c>
       <c r="AF93" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AL93" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="AG93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="AM93" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>20</v>
+        <v>590</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>20</v>
@@ -13447,10 +13520,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13461,7 +13534,7 @@
         <v>79</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>20</v>
@@ -13473,17 +13546,19 @@
         <v>20</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>248</v>
+        <v>592</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>594</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>595</v>
+      </c>
       <c r="O94" t="s" s="2">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>20</v>
@@ -13508,13 +13583,13 @@
         <v>20</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>253</v>
+        <v>20</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>594</v>
+        <v>20</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>595</v>
+        <v>20</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>20</v>
@@ -13532,13 +13607,13 @@
         <v>20</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>20</v>
@@ -13547,16 +13622,16 @@
         <v>100</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>20</v>
@@ -13564,10 +13639,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13578,7 +13653,7 @@
         <v>79</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>20</v>
@@ -13590,17 +13665,19 @@
         <v>20</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>325</v>
+        <v>600</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>599</v>
+        <v>336</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="N95" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>601</v>
+      </c>
       <c r="O95" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>20</v>
@@ -13649,13 +13726,13 @@
         <v>20</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>20</v>
@@ -13664,16 +13741,16 @@
         <v>100</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>331</v>
+        <v>603</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>20</v>
@@ -13681,10 +13758,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13707,19 +13784,19 @@
         <v>20</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>396</v>
+        <v>606</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>604</v>
+        <v>336</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>605</v>
+        <v>336</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>399</v>
+        <v>608</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>20</v>
@@ -13768,7 +13845,7 @@
         <v>20</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
@@ -13780,19 +13857,19 @@
         <v>20</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>100</v>
+        <v>609</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>400</v>
+        <v>610</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>607</v>
+        <v>20</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>20</v>
@@ -13800,10 +13877,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13826,18 +13903,16 @@
         <v>20</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>467</v>
+        <v>237</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>609</v>
+        <v>238</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>610</v>
+        <v>239</v>
       </c>
       <c r="N97" s="2"/>
-      <c r="O97" t="s" s="2">
-        <v>611</v>
-      </c>
+      <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>20</v>
       </c>
@@ -13885,7 +13960,7 @@
         <v>20</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>608</v>
+        <v>240</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>79</v>
@@ -13897,19 +13972,19 @@
         <v>20</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>470</v>
+        <v>241</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>231</v>
+        <v>20</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>612</v>
+        <v>20</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>20</v>
@@ -13917,21 +13992,21 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>20</v>
@@ -13943,18 +14018,18 @@
         <v>20</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>614</v>
+        <v>243</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" t="s" s="2">
-        <v>616</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>20</v>
       </c>
@@ -13978,13 +14053,13 @@
         <v>20</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>242</v>
+        <v>20</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>617</v>
+        <v>20</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>445</v>
+        <v>20</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>20</v>
@@ -14002,31 +14077,31 @@
         <v>20</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>613</v>
+        <v>246</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>161</v>
+        <v>241</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>231</v>
+        <v>20</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>618</v>
+        <v>20</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>20</v>
@@ -14034,43 +14109,45 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>20</v>
+        <v>614</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>283</v>
+        <v>133</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="N99" s="2"/>
+        <v>616</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="O99" t="s" s="2">
-        <v>622</v>
+        <v>223</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>20</v>
@@ -14119,31 +14196,31 @@
         <v>20</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>623</v>
+        <v>20</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>624</v>
+        <v>131</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>231</v>
+        <v>20</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>625</v>
+        <v>20</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>20</v>
@@ -14151,10 +14228,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14165,7 +14242,7 @@
         <v>79</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>20</v>
@@ -14177,16 +14254,18 @@
         <v>20</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
+      <c r="O100" t="s" s="2">
+        <v>621</v>
+      </c>
       <c r="P100" t="s" s="2">
         <v>20</v>
       </c>
@@ -14210,13 +14289,13 @@
         <v>20</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>20</v>
+        <v>263</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>20</v>
+        <v>622</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>20</v>
+        <v>623</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>20</v>
@@ -14234,13 +14313,13 @@
         <v>20</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>20</v>
@@ -14249,16 +14328,16 @@
         <v>100</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>20</v>
+        <v>625</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>20</v>
@@ -14266,10 +14345,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14280,7 +14359,7 @@
         <v>79</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>20</v>
@@ -14292,19 +14371,17 @@
         <v>20</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>578</v>
+        <v>335</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>397</v>
+        <v>627</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>631</v>
-      </c>
+        <v>628</v>
+      </c>
+      <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>20</v>
@@ -14353,13 +14430,13 @@
         <v>20</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>20</v>
@@ -14368,16 +14445,16 @@
         <v>100</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>633</v>
+        <v>340</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>634</v>
+        <v>241</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>20</v>
+        <v>630</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>20</v>
@@ -14385,10 +14462,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14399,7 +14476,7 @@
         <v>79</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>20</v>
@@ -14411,16 +14488,20 @@
         <v>20</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>227</v>
+        <v>425</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>228</v>
+        <v>632</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N102" s="2"/>
-      <c r="O102" s="2"/>
+        <v>633</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="P102" t="s" s="2">
         <v>20</v>
       </c>
@@ -14468,31 +14549,31 @@
         <v>20</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>230</v>
+        <v>631</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>231</v>
+        <v>428</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>20</v>
+        <v>241</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>20</v>
+        <v>635</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>20</v>
@@ -14507,14 +14588,14 @@
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>209</v>
+        <v>20</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>20</v>
@@ -14526,18 +14607,18 @@
         <v>20</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>133</v>
+        <v>495</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>233</v>
+        <v>637</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="O103" s="2"/>
+        <v>638</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" t="s" s="2">
+        <v>639</v>
+      </c>
       <c r="P103" t="s" s="2">
         <v>20</v>
       </c>
@@ -14585,31 +14666,31 @@
         <v>20</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>236</v>
+        <v>636</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>231</v>
+        <v>498</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>20</v>
+        <v>241</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>20</v>
+        <v>640</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>20</v>
@@ -14617,45 +14698,43 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>586</v>
+        <v>20</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>587</v>
+        <v>642</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>643</v>
+      </c>
+      <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
-        <v>213</v>
+        <v>644</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>20</v>
@@ -14680,13 +14759,13 @@
         <v>20</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>20</v>
+        <v>252</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>20</v>
+        <v>645</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>20</v>
+        <v>473</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>20</v>
@@ -14704,42 +14783,42 @@
         <v>20</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>589</v>
+        <v>641</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>20</v>
+        <v>241</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>20</v>
+        <v>646</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14747,13 +14826,13 @@
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I105" t="s" s="2">
         <v>20</v>
@@ -14762,19 +14841,17 @@
         <v>20</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>248</v>
+        <v>293</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>641</v>
-      </c>
+        <v>649</v>
+      </c>
+      <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>20</v>
@@ -14799,11 +14876,13 @@
         <v>20</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="Y105" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z105" t="s" s="2">
-        <v>643</v>
+        <v>20</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>20</v>
@@ -14821,31 +14900,31 @@
         <v>20</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>20</v>
+        <v>651</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>645</v>
+        <v>241</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>20</v>
@@ -14853,10 +14932,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14879,20 +14958,16 @@
         <v>20</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>651</v>
-      </c>
+        <v>656</v>
+      </c>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>20</v>
       </c>
@@ -14940,7 +15015,7 @@
         <v>20</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>79</v>
@@ -14955,16 +15030,16 @@
         <v>100</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>653</v>
+        <v>241</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>654</v>
+        <v>20</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>20</v>
@@ -14972,14 +15047,14 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>656</v>
+        <v>20</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -14998,18 +15073,20 @@
         <v>20</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>657</v>
+        <v>606</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>397</v>
+        <v>336</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>397</v>
+        <v>336</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="O107" s="2"/>
+        <v>659</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>660</v>
+      </c>
       <c r="P107" t="s" s="2">
         <v>20</v>
       </c>
@@ -15057,7 +15134,7 @@
         <v>20</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>79</v>
@@ -15072,16 +15149,16 @@
         <v>100</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>231</v>
+        <v>662</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>660</v>
+        <v>20</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>20</v>
@@ -15089,10 +15166,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15112,23 +15189,19 @@
         <v>20</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>283</v>
+        <v>237</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>662</v>
+        <v>238</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>665</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>20</v>
       </c>
@@ -15176,7 +15249,7 @@
         <v>20</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>661</v>
+        <v>240</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>79</v>
@@ -15188,13 +15261,13 @@
         <v>20</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>624</v>
+        <v>241</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>666</v>
+        <v>20</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>20</v>
@@ -15208,14 +15281,14 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -15228,26 +15301,24 @@
         <v>20</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>578</v>
+        <v>133</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>668</v>
+        <v>243</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>669</v>
+        <v>244</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>671</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>20</v>
       </c>
@@ -15295,7 +15366,7 @@
         <v>20</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>667</v>
+        <v>246</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>79</v>
@@ -15307,13 +15378,13 @@
         <v>20</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>672</v>
+        <v>241</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>231</v>
+        <v>20</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>20</v>
@@ -15327,42 +15398,46 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>20</v>
+        <v>614</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>227</v>
+        <v>133</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>228</v>
+        <v>615</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N110" s="2"/>
-      <c r="O110" s="2"/>
+        <v>616</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="P110" t="s" s="2">
         <v>20</v>
       </c>
@@ -15410,22 +15485,22 @@
         <v>20</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>230</v>
+        <v>617</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>231</v>
+        <v>131</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>20</v>
@@ -15440,26 +15515,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" hidden="true">
+    <row r="111">
       <c r="A111" t="s" s="2">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>209</v>
+        <v>20</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H111" t="s" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="I111" t="s" s="2">
         <v>20</v>
@@ -15468,18 +15543,20 @@
         <v>20</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>133</v>
+        <v>258</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>233</v>
+        <v>667</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>234</v>
+        <v>668</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="O111" s="2"/>
+        <v>669</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>670</v>
+      </c>
       <c r="P111" t="s" s="2">
         <v>20</v>
       </c>
@@ -15503,13 +15580,11 @@
         <v>20</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="Y111" s="2"/>
       <c r="Z111" t="s" s="2">
-        <v>20</v>
+        <v>671</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>20</v>
@@ -15527,31 +15602,31 @@
         <v>20</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>236</v>
+        <v>666</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>231</v>
+        <v>672</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>20</v>
+        <v>673</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>20</v>
+        <v>674</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>20</v>
@@ -15566,38 +15641,38 @@
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>586</v>
+        <v>20</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>133</v>
+        <v>326</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>587</v>
+        <v>676</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>588</v>
+        <v>677</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>212</v>
+        <v>678</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>213</v>
+        <v>679</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>20</v>
@@ -15646,31 +15721,31 @@
         <v>20</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>589</v>
+        <v>675</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>131</v>
+        <v>680</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>20</v>
+        <v>681</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>20</v>
+        <v>682</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>20</v>
@@ -15678,21 +15753,21 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>20</v>
+        <v>684</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>20</v>
@@ -15701,19 +15776,19 @@
         <v>20</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>678</v>
+        <v>336</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>679</v>
+        <v>336</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -15763,13 +15838,13 @@
         <v>20</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>20</v>
@@ -15778,16 +15853,16 @@
         <v>100</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>222</v>
+        <v>687</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>20</v>
@@ -15795,10 +15870,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15806,7 +15881,7 @@
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>89</v>
@@ -15821,16 +15896,20 @@
         <v>81</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>108</v>
+        <v>293</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="N114" s="2"/>
-      <c r="O114" s="2"/>
+        <v>691</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="O114" t="s" s="2">
+        <v>693</v>
+      </c>
       <c r="P114" t="s" s="2">
         <v>20</v>
       </c>
@@ -15854,13 +15933,13 @@
         <v>20</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>242</v>
+        <v>20</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>684</v>
+        <v>20</v>
       </c>
       <c r="Z114" t="s" s="2">
-        <v>685</v>
+        <v>20</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>20</v>
@@ -15878,10 +15957,10 @@
         <v>20</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>89</v>
@@ -15893,10 +15972,10 @@
         <v>100</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>686</v>
+        <v>652</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>231</v>
+        <v>694</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>20</v>
@@ -15905,11 +15984,713 @@
         <v>20</v>
       </c>
       <c r="AO114" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" hidden="true">
+      <c r="A115" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="F115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="O115" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="P115" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q115" s="2"/>
+      <c r="R115" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S115" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AM115" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN115" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO115" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" hidden="true">
+      <c r="A116" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E116" s="2"/>
+      <c r="F116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N116" s="2"/>
+      <c r="O116" s="2"/>
+      <c r="P116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q116" s="2"/>
+      <c r="R116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AL116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO116" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" hidden="true">
+      <c r="A117" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="O117" s="2"/>
+      <c r="P117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q117" s="2"/>
+      <c r="R117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AL117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO117" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" hidden="true">
+      <c r="A118" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="O118" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="P118" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q118" s="2"/>
+      <c r="R118" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S118" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM118" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN118" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO118" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" hidden="true">
+      <c r="A119" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E119" s="2"/>
+      <c r="F119" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="N119" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="O119" s="2"/>
+      <c r="P119" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q119" s="2"/>
+      <c r="R119" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S119" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AL119" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AM119" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN119" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="AO119" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" hidden="true">
+      <c r="A120" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E120" s="2"/>
+      <c r="F120" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G120" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I120" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="N120" s="2"/>
+      <c r="O120" s="2"/>
+      <c r="P120" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q120" s="2"/>
+      <c r="R120" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S120" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T120" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U120" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V120" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W120" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X120" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="Y120" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="Z120" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK120" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="AL120" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AM120" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN120" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO120" t="s" s="2">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO114">
+  <autoFilter ref="A1:AO120">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -15919,7 +16700,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI113">
+  <conditionalFormatting sqref="A2:AI119">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-onconova-cancer-patient.xlsx
+++ b/StructureDefinition-onconova-cancer-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T09:06:42+00:00</t>
+    <t>2025-11-19T13:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-patient.xlsx
+++ b/StructureDefinition-onconova-cancer-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T13:56:54+00:00</t>
+    <t>2025-11-19T14:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-patient.xlsx
+++ b/StructureDefinition-onconova-cancer-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T14:47:01+00:00</t>
+    <t>2025-11-21T06:40:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-patient.xlsx
+++ b/StructureDefinition-onconova-cancer-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T06:40:28+00:00</t>
+    <t>2025-11-21T12:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-patient.xlsx
+++ b/StructureDefinition-onconova-cancer-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T12:46:13+00:00</t>
+    <t>2025-11-21T14:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-patient.xlsx
+++ b/StructureDefinition-onconova-cancer-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T14:06:51+00:00</t>
+    <t>2025-11-22T09:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-patient.xlsx
+++ b/StructureDefinition-onconova-cancer-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:58:04+00:00</t>
+    <t>2025-11-24T08:04:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-patient.xlsx
+++ b/StructureDefinition-onconova-cancer-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:04:46+00:00</t>
+    <t>2025-11-24T08:19:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-patient.xlsx
+++ b/StructureDefinition-onconova-cancer-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:19:06+00:00</t>
+    <t>2025-11-24T08:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-patient.xlsx
+++ b/StructureDefinition-onconova-cancer-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:55:00+00:00</t>
+    <t>2025-11-24T09:24:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-patient.xlsx
+++ b/StructureDefinition-onconova-cancer-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T09:24:28+00:00</t>
+    <t>2025-11-24T11:19:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-patient.xlsx
+++ b/StructureDefinition-onconova-cancer-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T11:19:41+00:00</t>
+    <t>2025-11-25T07:35:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-patient.xlsx
+++ b/StructureDefinition-onconova-cancer-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T07:35:44+00:00</t>
+    <t>2025-11-25T10:34:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-patient.xlsx
+++ b/StructureDefinition-onconova-cancer-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T10:34:25+00:00</t>
+    <t>2025-11-27T10:13:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -279,7 +279,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}o-pat-req-1:The identifier element must contain the identifier for the Onconova logical pseudoidentifier slice. {identifier.where(type.coding.code = 'ACSN' and system = 'Onconova').exists()}o-pat-req-2:The identifier element must contain the identifier for the clinical center's patient identifier slice. {identifier.where(type.coding.code = 'MR').exists(system.exists() and value.exists())}o-pat-req-3:The gender element is required and must be provided {gender.exists()}o-pat-req-4:The birthDate element is required and must be provided {birthDate.exists() and birthDate.hasValue()}o-pat-req-5:The vital status extension is required and must be provided. {birthDate.extension('http://hl7.org/fhir/StructureDefinition/onconova-ext-cancer-patient-vital-status').valueCodeableConcept.hasValue()}o-pat-req-6:The vital status extension is required and must be provided. {deceased.extension('http://hl7.org/fhir/StructureDefinition/onconova-ext-cancer-patient-vital-status').valueCodeableConcept.hasValue()}o-pat-req-7:If the patient is deceased, the date of death and cause of death must be provided. {deceasedDateTime.extension('http://hl7.org/fhir/StructureDefinition/onconova-ext-cancer-patient-vital-status').valueCodeableConcept.coding.code = '419099009' implies (deceasedDateTime.hasValue() and deceasedDateTime.extension('http://hl7.org/fhir/StructureDefinition/onconova-ext-cancer-patient-cause-of-death').valueCodeableConcept.hasValue())}o-pat-req-8:If the patient vital status is unknown, the end of records must be provided. {deceasedDateTime.extension('http://hl7.org/fhir/StructureDefinition/onconova-ext-cancer-patient-vital-status').valueCodeableConcept.coding.code = '261665006' implies extension('http://hl7.org/fhir/StructureDefinition/onconova-ext-cancer-patient-end-of-records').valueDate.hasValue()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}o-pat-req-1:The identifier element must contain the identifier for the Onconova logical pseudoidentifier slice. {identifier.where(type.coding.code = 'ACSN' and system = 'Onconova').exists()}o-pat-req-2:The identifier element must contain the identifier for the clinical center's patient identifier slice. {identifier.where(type.coding.code = 'MR').exists(system.exists() and value.exists())}o-pat-req-3:The gender element is required and must be provided {gender.exists()}o-pat-req-4:The birthDate element is required and must be provided {birthDate.exists() and birthDate.hasValue()}o-pat-req-5:The vital status extension is required and must be provided. {birthDate.extension('http://hl7.org/fhir/StructureDefinition/onconova-ext-cancer-patient-vital-status').valueCodeableConcept.exists()}o-pat-req-6:The vital status extension is required and must be provided. {deceased.extension('http://hl7.org/fhir/StructureDefinition/onconova-ext-cancer-patient-vital-status').valueCodeableConcept.exists()}o-pat-req-7:If the patient is deceased, the date of death and cause of death must be provided. {deceasedDateTime.extension('http://hl7.org/fhir/StructureDefinition/onconova-ext-cancer-patient-vital-status').valueCodeableConcept.coding.code = '419099009' implies (deceasedDateTime.hasValue() and deceasedDateTime.extension('http://hl7.org/fhir/StructureDefinition/onconova-ext-cancer-patient-cause-of-death').valueCodeableConcept.exists())}o-pat-req-8:If the patient vital status is unknown, the end of records must be provided. {deceasedDateTime.extension('http://hl7.org/fhir/StructureDefinition/onconova-ext-cancer-patient-vital-status').valueCodeableConcept.coding.code = '261665006' implies extension('http://hl7.org/fhir/StructureDefinition/onconova-ext-cancer-patient-end-of-records').valueDate.hasValue()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>

--- a/StructureDefinition-onconova-cancer-patient.xlsx
+++ b/StructureDefinition-onconova-cancer-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T10:13:46+00:00</t>
+    <t>2025-11-27T13:06:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-patient.xlsx
+++ b/StructureDefinition-onconova-cancer-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T13:06:44+00:00</t>
+    <t>2025-12-04T06:29:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-patient.xlsx
+++ b/StructureDefinition-onconova-cancer-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:29:30+00:00</t>
+    <t>2025-12-04T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-patient.xlsx
+++ b/StructureDefinition-onconova-cancer-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:46:00+00:00</t>
+    <t>2025-12-04T07:07:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-patient.xlsx
+++ b/StructureDefinition-onconova-cancer-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T07:07:35+00:00</t>
+    <t>2025-12-04T10:18:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-patient.xlsx
+++ b/StructureDefinition-onconova-cancer-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:18:27+00:00</t>
+    <t>2025-12-04T10:59:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-cancer-patient.xlsx
+++ b/StructureDefinition-onconova-cancer-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T14:29:35+00:00</t>
+    <t>2026-02-25T15:12:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -279,7 +279,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}o-pat-req-1:The identifier element must contain the identifier for the Onconova logical pseudoidentifier slice. {identifier.where(type.coding.code = 'ACSN' and system = 'Onconova').exists()}o-pat-req-2:The identifier element must contain the identifier for the clinical center's patient identifier slice. {identifier.where(type.coding.code = 'MR').exists(system.exists() and value.exists())}o-pat-req-3:The gender element is required and must be provided {gender.exists()}o-pat-req-4:The birthDate element is required and must be provided {birthDate.exists() and birthDate.hasValue()}o-pat-req-5:The vital status extension is required and must be provided. {birthDate.extension('http://hl7.org/fhir/StructureDefinition/onconova-ext-cancer-patient-vital-status').valueCodeableConcept.exists()}o-pat-req-6:The vital status extension is required and must be provided. {deceased.extension('http://hl7.org/fhir/StructureDefinition/onconova-ext-cancer-patient-vital-status').valueCodeableConcept.exists()}o-pat-req-7:If the patient is deceased, the date of death and cause of death must be provided. {deceasedDateTime.extension('http://hl7.org/fhir/StructureDefinition/onconova-ext-cancer-patient-vital-status').valueCodeableConcept.coding.code = '419099009' implies (deceasedDateTime.hasValue() and deceasedDateTime.extension('http://hl7.org/fhir/StructureDefinition/onconova-ext-cancer-patient-cause-of-death').valueCodeableConcept.exists())}o-pat-req-8:If the patient vital status is unknown, the end of records must be provided. {deceasedDateTime.extension('http://hl7.org/fhir/StructureDefinition/onconova-ext-cancer-patient-vital-status').valueCodeableConcept.coding.code = '261665006' implies extension('http://hl7.org/fhir/StructureDefinition/onconova-ext-cancer-patient-end-of-records').valueDate.hasValue()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}o-pat-req-1:The identifier element must contain the identifier for the Onconova logical pseudoidentifier slice. {identifier.where(type.coding.code = 'ACSN' and system = 'Onconova').exists()}o-pat-req-2:The identifier element must contain the identifier for the clinical center's patient identifier slice. {identifier.where(type.coding.code = 'MR').exists(system.exists() and value.exists())}o-pat-req-3:The gender element is required and must be provided {gender.exists()}o-pat-req-4:The birthDate element is required and must be provided {birthDate.exists() and birthDate.hasValue()}o-pat-req-5:The vital status extension is required and must be provided. {deceased.extension('http://hl7.org/fhir/StructureDefinition/onconova-ext-cancer-patient-vital-status').valueCodeableConcept.exists()}o-pat-req-6:If the patient is deceased, the date of death and cause of death must be provided. {deceasedDateTime.extension('http://hl7.org/fhir/StructureDefinition/onconova-ext-cancer-patient-vital-status').valueCodeableConcept.coding.code = '419099009' implies (deceasedDateTime.hasValue() and deceasedDateTime.extension('http://hl7.org/fhir/StructureDefinition/onconova-ext-cancer-patient-cause-of-death').valueCodeableConcept.exists())}o-pat-req-7:If the patient vital status is unknown, the end of records must be provided. {deceasedDateTime.extension('http://hl7.org/fhir/StructureDefinition/onconova-ext-cancer-patient-vital-status').valueCodeableConcept.coding.code = '261665006' implies extension('http://hl7.org/fhir/StructureDefinition/onconova-ext-cancer-patient-end-of-records').valueDate.hasValue()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
